--- a/Think About/Table/通话记录.xlsx
+++ b/Think About/Table/通话记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>4分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时32分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +85,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +104,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -113,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -131,6 +141,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -505,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -559,6 +572,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42376.932743055557</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
